--- a/Upbit_Input.xlsx
+++ b/Upbit_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m01\Desktop\Researchan\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECE1D79-004B-45A4-87B8-09F802ED5465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF75225-5BDA-4625-A2DD-746843E34791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1907,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1921,11 +1921,10 @@
     <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="21.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>372</v>
       </c>
@@ -1943,9 +1942,8 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>374</v>
       </c>
@@ -1996,7 +1994,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>375</v>
       </c>
@@ -2013,7 +2011,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2028,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>283</v>
       </c>
@@ -2047,7 +2045,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>376</v>
       </c>
@@ -2064,7 +2062,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>377</v>
       </c>
@@ -2081,7 +2079,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>378</v>
       </c>
@@ -2098,7 +2096,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -2115,7 +2113,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2149,7 +2147,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +2164,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -2183,7 +2181,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>284</v>
       </c>

--- a/Upbit_Input.xlsx
+++ b/Upbit_Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m01\Desktop\Researchan\Crypto_InfoSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF75225-5BDA-4625-A2DD-746843E34791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63965C-D3E3-466A-904C-52AFB86FEA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1909,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3345,7 +3345,7 @@
         <v>421</v>
       </c>
       <c r="C84" s="7">
-        <v>22314</v>
+        <v>3600</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>380</v>
@@ -3498,7 +3498,7 @@
         <v>425</v>
       </c>
       <c r="C93" s="7">
-        <v>3273</v>
+        <v>2930</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>380</v>
@@ -3804,7 +3804,7 @@
         <v>431</v>
       </c>
       <c r="C111" s="7">
-        <v>18755</v>
+        <v>3418</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>380</v>
@@ -4144,7 +4144,7 @@
         <v>443</v>
       </c>
       <c r="C131" s="7">
-        <v>4242</v>
+        <v>7461</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>380</v>
@@ -4926,7 +4926,7 @@
         <v>449</v>
       </c>
       <c r="C177" s="7">
-        <v>8886</v>
+        <v>3330</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>380</v>
@@ -4943,7 +4943,7 @@
         <v>472</v>
       </c>
       <c r="C178" s="7">
-        <v>7876</v>
+        <v>1154</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>380</v>

--- a/Upbit_Input.xlsx
+++ b/Upbit_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63965C-D3E3-466A-904C-52AFB86FEA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B74AE7-BC0F-41FD-8C43-64F3E5B59BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="476">
   <si>
     <t>CMC_id</t>
   </si>
@@ -1469,6 +1469,10 @@
   </si>
   <si>
     <t>KRW_Listing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1909,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5099,7 +5103,7 @@
         <v>10688</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>380</v>

--- a/Upbit_Input.xlsx
+++ b/Upbit_Input.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B74AE7-BC0F-41FD-8C43-64F3E5B59BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E337C9AE-8776-43E1-B697-7168F8D92AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1913,8 +1916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2485,7 +2489,7 @@
         <v>1727</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>380</v>
@@ -5279,6 +5283,7 @@
       <c r="E234" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Upbit_Input.xlsx
+++ b/Upbit_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Researchan\Desktop\Crypto_InfoSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E337C9AE-8776-43E1-B697-7168F8D92AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB4E63-01E3-49B8-B80B-F58B59D7B263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="481">
   <si>
     <t>CMC_id</t>
   </si>
@@ -765,9 +765,6 @@
   </si>
   <si>
     <t>4279</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>threshold-network-token</t>
@@ -1373,9 +1370,6 @@
     <t>orbs</t>
   </si>
   <si>
-    <t>orchid-protocol</t>
-  </si>
-  <si>
     <t>playdapp</t>
   </si>
   <si>
@@ -1472,6 +1466,34 @@
   </si>
   <si>
     <t>KRW_Listing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stargate-finance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orchid-protocol</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1914,11 +1936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1934,19 +1956,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1962,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1979,44 +2001,44 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="7">
         <v>8538</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5" s="7">
         <v>23195</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2030,78 +2052,78 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" s="7">
         <v>3637</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C8" s="7">
         <v>11532</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="7">
         <v>11568</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" s="7">
         <v>6641</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2115,10 +2137,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2132,10 +2154,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2149,10 +2171,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2166,10 +2188,10 @@
         <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2183,27 +2205,27 @@
         <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C16" s="7">
         <v>7460</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2217,44 +2239,44 @@
         <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C18" s="7">
         <v>1320</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C19" s="7">
         <v>1586</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,10 +2290,10 @@
         <v>30</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,27 +2307,27 @@
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22" s="7">
         <v>5227</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2319,27 +2341,27 @@
         <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C24" s="7">
         <v>8602</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2353,10 +2375,10 @@
         <v>39</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2370,10 +2392,10 @@
         <v>42</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2387,27 +2409,27 @@
         <v>45</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C28" s="7">
         <v>5225</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2421,10 +2443,10 @@
         <v>48</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2438,27 +2460,27 @@
         <v>51</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C31" s="7">
         <v>7817</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2472,61 +2494,61 @@
         <v>54</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C33" s="7">
         <v>1727</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C34" s="7">
         <v>3801</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C35" s="7">
         <v>3602</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2540,61 +2562,61 @@
         <v>57</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C37" s="7">
         <v>2083</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C38" s="7">
         <v>16086</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C39" s="7">
         <v>8107</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2608,10 +2630,10 @@
         <v>60</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2625,10 +2647,10 @@
         <v>63</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2642,27 +2664,27 @@
         <v>66</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C43" s="7">
         <v>10049</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2676,44 +2698,44 @@
         <v>69</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C45" s="7">
         <v>3946</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C46" s="7">
         <v>3635</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2727,27 +2749,27 @@
         <v>72</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C48" s="7">
         <v>5198</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2761,78 +2783,78 @@
         <v>75</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C50" s="7">
         <v>1816</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C51" s="7">
         <v>4862</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C52" s="7">
         <v>4943</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C53" s="7">
         <v>5618</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2846,10 +2868,10 @@
         <v>78</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2863,44 +2885,44 @@
         <v>81</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C56" s="7">
         <v>5908</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C57" s="7">
         <v>1856</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2914,10 +2936,10 @@
         <v>84</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2931,10 +2953,10 @@
         <v>87</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2948,27 +2970,27 @@
         <v>90</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C61" s="7">
         <v>2299</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2982,10 +3004,10 @@
         <v>93</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2999,10 +3021,10 @@
         <v>96</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3016,10 +3038,10 @@
         <v>99</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3033,10 +3055,10 @@
         <v>102</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -3050,27 +3072,27 @@
         <v>105</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C67" s="7">
         <v>4953</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -3084,10 +3106,10 @@
         <v>108</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -3101,44 +3123,44 @@
         <v>111</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C70" s="7">
         <v>9510</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C71" s="7">
         <v>3884</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3152,44 +3174,44 @@
         <v>11877</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C73" s="7">
         <v>1785</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C74" s="7">
         <v>1455</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3203,44 +3225,44 @@
         <v>18069</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C76" s="7">
         <v>2861</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C77" s="7">
         <v>258</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -3254,10 +3276,10 @@
         <v>118</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -3271,10 +3293,10 @@
         <v>121</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -3288,95 +3310,95 @@
         <v>124</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C81" s="7">
         <v>5375</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C82" s="7">
         <v>23037</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C83" s="7">
         <v>5370</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C84" s="7">
         <v>3600</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C85" s="7">
         <v>5380</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -3390,10 +3412,10 @@
         <v>127</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3407,10 +3429,10 @@
         <v>130</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -3424,27 +3446,27 @@
         <v>133</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C89" s="7">
         <v>11796</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3458,10 +3480,10 @@
         <v>136</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3475,10 +3497,10 @@
         <v>1720</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -3492,61 +3514,61 @@
         <v>141</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C93" s="7">
         <v>2930</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C94" s="7">
         <v>5488</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C95" s="7">
         <v>5224</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3560,10 +3582,10 @@
         <v>144</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3577,10 +3599,10 @@
         <v>147</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3594,10 +3616,10 @@
         <v>150</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,27 +3633,27 @@
         <v>153</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C100" s="7">
         <v>2588</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -3645,10 +3667,10 @@
         <v>156</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -3662,27 +3684,27 @@
         <v>159</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C103" s="7">
         <v>1214</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3696,10 +3718,10 @@
         <v>162</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3713,27 +3735,27 @@
         <v>165</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C106" s="7">
         <v>3175</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -3747,10 +3769,10 @@
         <v>168</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -3764,61 +3786,61 @@
         <v>171</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C109" s="7">
         <v>4038</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C110" s="7">
         <v>2303</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C111" s="7">
         <v>3418</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -3832,10 +3854,10 @@
         <v>174</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -3849,44 +3871,44 @@
         <v>177</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C114" s="7">
         <v>5266</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C115" s="7">
         <v>2915</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3900,44 +3922,44 @@
         <v>180</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C117" s="7">
         <v>2982</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C118" s="7">
         <v>15137</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3951,10 +3973,10 @@
         <v>183</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3968,10 +3990,10 @@
         <v>186</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3985,49 +4007,49 @@
         <v>189</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C122" s="7">
         <v>1732</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C123" s="7">
         <v>3698</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>190</v>
@@ -4036,10 +4058,10 @@
         <v>191</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -4053,44 +4075,44 @@
         <v>194</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C126" s="7">
         <v>3217</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C127" s="7">
         <v>6739</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -4104,180 +4126,180 @@
         <v>197</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C129" s="7">
         <v>3835</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="C130" s="7">
         <v>5026</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C131" s="7">
         <v>7461</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C132" s="7">
         <v>20362</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C133" s="7">
         <v>2132</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C134" s="7">
         <v>4120</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C135" s="7">
         <v>5226</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C136" s="7">
         <v>9040</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C137" s="7">
         <v>2840</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C138" s="7">
         <v>4746</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -4291,10 +4313,10 @@
         <v>200</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -4308,61 +4330,61 @@
         <v>203</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C141" s="7">
         <v>8526</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C142" s="7">
         <v>19819</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C143" s="7">
         <v>2553</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -4376,27 +4398,27 @@
         <v>206</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C145" s="7">
         <v>8075</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -4410,10 +4432,10 @@
         <v>209</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -4427,10 +4449,10 @@
         <v>212</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -4444,10 +4466,10 @@
         <v>215</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -4461,44 +4483,44 @@
         <v>218</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C150" s="7">
         <v>1312</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C151" s="7">
         <v>1042</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -4512,27 +4534,27 @@
         <v>221</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C153" s="7">
         <v>1759</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -4546,10 +4568,10 @@
         <v>224</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4563,208 +4585,208 @@
         <v>227</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C156" s="7">
         <v>3724</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C157" s="7">
         <v>5612</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C158" s="7">
         <v>1230</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>228</v>
+        <v>475</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>230</v>
+        <v>476</v>
+      </c>
+      <c r="C159" s="7">
+        <v>18934</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>379</v>
+        <v>477</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>379</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C161" s="7">
-        <v>4006</v>
+        <v>232</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C162" s="7">
-        <v>1343</v>
+        <v>4006</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C163" s="7">
-        <v>8911</v>
+        <v>1343</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>236</v>
+        <v>451</v>
+      </c>
+      <c r="C164" s="7">
+        <v>8911</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>379</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>362</v>
+        <v>237</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C166" s="7">
-        <v>10529</v>
+        <v>238</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>242</v>
+        <v>450</v>
+      </c>
+      <c r="C167" s="7">
+        <v>10529</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>379</v>
@@ -4775,152 +4797,152 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>363</v>
+        <v>474</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="C169" s="7">
-        <v>3822</v>
+        <v>243</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>248</v>
+        <v>444</v>
+      </c>
+      <c r="C170" s="7">
+        <v>3822</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>379</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>364</v>
+        <v>245</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C171" s="7">
-        <v>6731</v>
+        <v>246</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>251</v>
+        <v>445</v>
+      </c>
+      <c r="C172" s="7">
+        <v>6731</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>379</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>365</v>
+        <v>248</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C173" s="7">
-        <v>3930</v>
+        <v>249</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C174" s="7">
-        <v>2563</v>
+        <v>3930</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>254</v>
+        <v>446</v>
+      </c>
+      <c r="C175" s="7">
+        <v>2563</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>379</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C176" s="7">
-        <v>2866</v>
+        <v>252</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>379</v>
@@ -4928,47 +4950,47 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C177" s="7">
-        <v>3330</v>
+        <v>2866</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="C178" s="7">
-        <v>1154</v>
+        <v>3330</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>255</v>
+        <v>368</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>257</v>
+        <v>470</v>
+      </c>
+      <c r="C179" s="7">
+        <v>1154</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>379</v>
@@ -4979,152 +5001,152 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="C181" s="7">
-        <v>2300</v>
+        <v>258</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>263</v>
+        <v>448</v>
+      </c>
+      <c r="C182" s="7">
+        <v>2300</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>379</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C187" s="7">
-        <v>10688</v>
+        <v>273</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>475</v>
+        <v>378</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>276</v>
+        <v>370</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>278</v>
+        <v>423</v>
+      </c>
+      <c r="C188" s="7">
+        <v>10688</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>379</v>
@@ -5132,23 +5154,37 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="C190" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E190" s="5"/>
+      <c r="D190" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E191" s="5"/>
@@ -5281,6 +5317,9 @@
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
